--- a/kaiju/inulinase/tax_summarized/metabolism/genus.sum.xlsx
+++ b/kaiju/inulinase/tax_summarized/metabolism/genus.sum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\OneDrive\Documents\GitHub\Carb_CRDS\kaiju\inulinase\tax_summarized\metabolism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/kaiju/inulinase/tax_summarized/metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA4B95-3A94-4679-833E-2242672A69A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B35CA48A-87EE-47C8-B1B8-7E0A1FC78A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="genus.sum" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1219,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/kaiju/inulinase/tax_summarized/metabolism/genus.sum.xlsx
+++ b/kaiju/inulinase/tax_summarized/metabolism/genus.sum.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B35CA48A-87EE-47C8-B1B8-7E0A1FC78A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="genus.sum" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1219,28 +1219,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>1.5447957999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0.15166543299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1.5708996999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0.23732044199999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0.17336057699999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>2.2255199999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0.53686285899999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1.8226284999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>3.057149736</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>6.8306E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1.9880800000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7.4184000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0.10879570199999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>9.3895999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>4.6947999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>1.9339194000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>9.7238375000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3.9049671000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>4.6947999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>7.98122E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>4.6947999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
